--- a/public/imported_files/Unidade Executora.xlsx
+++ b/public/imported_files/Unidade Executora.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\seo-v0.8.5\public\imported_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31AC8AE-8A8E-4095-B9CA-79612B9F687D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan2" sheetId="2" r:id="rId1"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId2"/>
+    <sheet name="Plan3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
-  <si>
-    <t>01.16.00</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>SECRETARIA DE GOVERNO E GESTÃO</t>
   </si>
@@ -41,9 +31,6 @@
     <t>FUNDO SOCIAL DE SOLIDARIEDADE</t>
   </si>
   <si>
-    <t>01.17.00</t>
-  </si>
-  <si>
     <t>SECRETARIA DE ADMINISTRAÇÃO E FINANÇAS</t>
   </si>
   <si>
@@ -53,9 +40,6 @@
     <t>ADMIN. SECRETARIA DE ADMINISTRAÇÃO</t>
   </si>
   <si>
-    <t>01.18.00</t>
-  </si>
-  <si>
     <t>SECRETARIA DE SERVIÇOS URBANOS</t>
   </si>
   <si>
@@ -71,9 +55,6 @@
     <t>FDO. MUNICIPAL DE ILUMINAÇÃO PÚBLICA</t>
   </si>
   <si>
-    <t>01.19.00</t>
-  </si>
-  <si>
     <t>SECRETARIA DE EDUCAÇÃO</t>
   </si>
   <si>
@@ -125,12 +106,6 @@
     <t>MERENDA ESCOLAR</t>
   </si>
   <si>
-    <t>01.20.00</t>
-  </si>
-  <si>
-    <t>SECRETARIA DE DESENVOL. SOCIAL, TRABALHO E RENDA</t>
-  </si>
-  <si>
     <t>01.20.01</t>
   </si>
   <si>
@@ -149,9 +124,6 @@
     <t>FMDCA - FDO MUNICIPAL DOS DIR. DA CRIANÇA E ADOLES</t>
   </si>
   <si>
-    <t>01.21.00</t>
-  </si>
-  <si>
     <t>SECRETARIA DE MEIO AMBIENTE</t>
   </si>
   <si>
@@ -173,9 +145,6 @@
     <t>FDO. MUNICIPAL DE PROTEÇÃO ANIMAL</t>
   </si>
   <si>
-    <t>01.22.00</t>
-  </si>
-  <si>
     <t>SECRETARIA DE PLANEJAMENTO URBANO</t>
   </si>
   <si>
@@ -185,9 +154,6 @@
     <t>ADMINISTRAÇÃO DA SECRETARIA DE PLAN. URBANO</t>
   </si>
   <si>
-    <t>01.23.00</t>
-  </si>
-  <si>
     <t>SECRETARIA DE SEGURANÇA E CIDADANIA</t>
   </si>
   <si>
@@ -215,9 +181,6 @@
     <t>MANUTENÇÃO DO CORPO DE BOMBEIROS</t>
   </si>
   <si>
-    <t>01.24.00</t>
-  </si>
-  <si>
     <t>SECRETARIA DE TURISMO, ESPORTE E CULTURA</t>
   </si>
   <si>
@@ -239,9 +202,6 @@
     <t>ESPORTE E LAZER</t>
   </si>
   <si>
-    <t>01.25.00</t>
-  </si>
-  <si>
     <t>SECRETARIA DE SAÚDE</t>
   </si>
   <si>
@@ -251,9 +211,6 @@
     <t>FUNDO MUNICIPAL DE SAÚDE</t>
   </si>
   <si>
-    <t>01.26.00</t>
-  </si>
-  <si>
     <t>SECRETARIA DE OBRAS E HABITAÇÃO</t>
   </si>
   <si>
@@ -269,9 +226,6 @@
     <t>FUNDO MUNICIPAL DE HABITAÇÃO</t>
   </si>
   <si>
-    <t>01.29.00</t>
-  </si>
-  <si>
     <t>PROCURADORIA GERAL DO MUNICÍPIO</t>
   </si>
   <si>
@@ -281,29 +235,23 @@
     <t>ADMINISTRAÇÃO DA PROCURADORIA GERAL</t>
   </si>
   <si>
-    <t>DESCRIÇÃO</t>
-  </si>
-  <si>
-    <t>UNIDADE ORÇAMENTÁRIA</t>
-  </si>
-  <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
-    <t>UNIDADE</t>
-  </si>
-  <si>
-    <t>orçamentária</t>
-  </si>
-  <si>
-    <t>Secretaria de Administração e Finanças</t>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>unidade</t>
+  </si>
+  <si>
+    <t>unidade_orcamentaria</t>
+  </si>
+  <si>
+    <t>SECRETARIA DE DESENVOLVIMENTO SOCIAL, TRABALHO E RENDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,14 +270,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -339,7 +279,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -376,7 +316,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -394,7 +334,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -409,21 +349,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -439,7 +364,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -454,21 +379,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -484,43 +394,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -545,83 +425,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -648,7 +492,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -667,7 +511,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -705,9 +549,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -740,26 +584,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -792,26 +619,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -984,589 +794,371 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D32" sqref="C1:D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="18"/>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="18"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="17"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="17"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="17"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="17"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="18"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="17"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="17"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="18"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="17"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17"/>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="18"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="17"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="18"/>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="18"/>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="53" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" t="s">
-        <v>90</v>
+      <c r="A1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="C14" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="C15" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="C16" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="14" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="B19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="C19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="C21" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="9" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="B23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C24" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="B25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="C26" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="C27" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="C28" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="C30" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B31" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="C31" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
